--- a/VACARIA.xlsx
+++ b/VACARIA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{872EA253-ACC4-4003-ACBB-74D3F78F01E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4296802-3D34-46E3-806A-2414F005AA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="10" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
@@ -22,13 +22,14 @@
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="DGC" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="333">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1015,6 +1016,18 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1038,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1091,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1092,7 +1118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1133,6 +1159,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1218,9 +1250,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,12 +1338,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E71B1041-B6A0-4436-A74F-54704D1B8D6B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{89109349-C64A-41E9-B6FB-662EDC231921}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1341,10 +1377,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B42368A-8683-4AD2-813E-628838854609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EDBC6A-A9C2-4EE4-8418-5A82BC06B63D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1418,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE2DB62-4165-4BB9-AAF8-F3D9DEC9292B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6B9134-B5D3-494E-8D68-18DFB6CEF8C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1481,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D90100D-CC7C-49EB-B94A-F76B9CCF3823}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F69838-DFF6-4D2A-9BBB-3E8DFB7E1411}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1500,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5377C5C-FF9F-4FAC-5D38-CFEEA8FB25FA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F7BCCB-A797-F2FB-E462-F14780143B1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1513,7 +1549,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92C2165-BD70-9DD5-8874-A5C589BA2CF3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463AE0B8-C0E1-14D4-EA9C-2562AA293326}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1532,7 +1568,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11972BC7-062D-23B8-FF40-711B13FC07E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC116A5-ACA1-8C34-DA5B-DA84DF0F1B6B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1563,7 +1599,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2CAC32-48F1-424E-464F-D6E80E3874B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7A3185-742C-57FF-1A1C-7C9D3253B37F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1594,7 +1630,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B02010D-8BB6-F437-12C1-9195B967A77F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E7AC41-D1F1-FDC6-5E8D-E151B451C053}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1637,7 +1673,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF757923-469A-4590-8B81-BA4187CA18D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBEED90-0391-43EF-8019-ABFBC6419D9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1711,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61079170-9AC6-417E-94E3-EB07CC89D959}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795CCF76-B872-4B2B-9AE8-2354D5A3EE0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1754,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F20CF3-CDA4-4E73-8FD6-E897A89DD1C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7ACFD5-10E4-4B1E-A216-AA5AF0A88197}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B7DEE6-D938-43CA-AAD9-BBE227E6F37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317790EE-FD85-4CA1-9404-6FB86D1CA6DD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2043,102 +2079,142 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="40"/>
+    <col min="6" max="6" width="2" style="40" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/VACARIA.xlsx
+++ b/VACARIA.xlsx
@@ -8,28 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4296802-3D34-46E3-806A-2414F005AA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3A18A0-CF69-482A-8087-813A51F55B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="10" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="9" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
-    <sheet name="DGC" sheetId="9" r:id="rId10"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
+    <sheet name="DGC" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="331">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1010,12 +1009,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1252,7 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,21 +1316,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,7 +1325,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{89109349-C64A-41E9-B6FB-662EDC231921}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6E9B912C-D167-4D5A-9DCF-F64EDC534BD3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1377,10 +1355,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EDBC6A-A9C2-4EE4-8418-5A82BC06B63D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10955367-CD5A-499C-AF09-B318F6F50DA6}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1396,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6B9134-B5D3-494E-8D68-18DFB6CEF8C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAB84CD-990B-4774-A879-934A1B296852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1459,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F69838-DFF6-4D2A-9BBB-3E8DFB7E1411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8027312-AF5D-433E-98D9-A3C4F4AF8645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1478,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F7BCCB-A797-F2FB-E462-F14780143B1D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499AB525-F26D-DCB0-EC9A-71E06F162503}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1549,7 +1527,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463AE0B8-C0E1-14D4-EA9C-2562AA293326}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0EF45B-2254-8024-7B74-94F0A378004E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1568,7 +1546,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC116A5-ACA1-8C34-DA5B-DA84DF0F1B6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A78FD22-EE1E-0ECC-EA0C-A766148912FC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1599,7 +1577,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7A3185-742C-57FF-1A1C-7C9D3253B37F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D693EA09-9970-8733-E935-BB7E7F79AB2C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1630,7 +1608,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E7AC41-D1F1-FDC6-5E8D-E151B451C053}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C2BD19-80C3-E25D-699B-BBEDCF01D0AB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1673,7 +1651,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBEED90-0391-43EF-8019-ABFBC6419D9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD573A3-0A9B-476A-8BB4-353C84DF0EEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1689,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795CCF76-B872-4B2B-9AE8-2354D5A3EE0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B8119D-53F4-4033-9F8C-A44A4947739D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1732,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7ACFD5-10E4-4B1E-A216-AA5AF0A88197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F749FA9B-AB57-49E7-9E86-DD493C7BC592}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317790EE-FD85-4CA1-9404-6FB86D1CA6DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1744C5-9128-49DD-A6CF-C88D2250E551}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2079,142 +2057,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>332</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5966,45 +5904,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="32" t="s">
         <v>327</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="36">
-        <v>115</v>
-      </c>
-      <c r="C2" s="34">
-        <v>7.6048141780187808E-3</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/VACARIA.xlsx
+++ b/VACARIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3A18A0-CF69-482A-8087-813A51F55B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16B9836-2470-445A-A86B-CCDF45900F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6E9B912C-D167-4D5A-9DCF-F64EDC534BD3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{BBAAA20C-B042-46A1-9541-B28A66F56569}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1355,10 +1355,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10955367-CD5A-499C-AF09-B318F6F50DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC975AA6-3DF6-48B9-98EC-CCAE2736A1A0}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAB84CD-990B-4774-A879-934A1B296852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2C4BCE-54F6-4AC3-BEB0-90D8C77BCED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8027312-AF5D-433E-98D9-A3C4F4AF8645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836EE668-AB2E-4AFD-A126-98B2E0A7A882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499AB525-F26D-DCB0-EC9A-71E06F162503}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7378481-E083-A7C5-EB36-6C482CA2822F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0EF45B-2254-8024-7B74-94F0A378004E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C0EEED-D403-F883-F24C-BA88F22E7694}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A78FD22-EE1E-0ECC-EA0C-A766148912FC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D228BC6-64A4-8286-2509-D146BF688013}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D693EA09-9970-8733-E935-BB7E7F79AB2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7F0652-84D2-4D97-ED6C-6A3FCC6B82A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1608,7 +1608,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C2BD19-80C3-E25D-699B-BBEDCF01D0AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AD6343-8BD3-9821-8C08-AB71EBD422E4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1651,7 +1651,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD573A3-0A9B-476A-8BB4-353C84DF0EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A5849A-2589-4668-B91D-5164AC27B84C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1689,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B8119D-53F4-4033-9F8C-A44A4947739D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536A0749-63A9-4107-96ED-53B1FF7C5911}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,50 +1714,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F749FA9B-AB57-49E7-9E86-DD493C7BC592}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2045,7 +2001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1744C5-9128-49DD-A6CF-C88D2250E551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8F8A9C-5E4E-4035-8D0A-90F285D1DBAC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
